--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -53,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,10 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,10 +210,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,21 +419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -456,32 +462,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -492,7 +498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -512,12 +518,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -48,6 +49,18 @@
   </si>
   <si>
     <t>damager</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
@@ -423,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -465,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -560,4 +573,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -49,25 +48,13 @@
   </si>
   <si>
     <t>damager</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,18 +71,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,12 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,21 +413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -475,32 +456,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -511,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,41 +512,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -573,52 +525,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>